--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,13 +397,97 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Test</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Status</v>
+      </c>
+      <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Timestamp</v>
+      </c>
+      <c r="E1" t="str">
+        <v>TimeStamp</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>User AM melakukan akses ke menu Stip Approval</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2025-02-09T11:46:01.983Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2025-02-09T11:46:08.118Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2025-02-09T11:46:08.316Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2025-02-09T11:46:25.234Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2025-02-09T11:46:31.116Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>User LEAD PM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2025-02-09T11:46:31.307Z</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -427,7 +427,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-09T11:46:01.983Z</v>
+        <v>2025-02-09T15:06:39.976Z</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +438,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-02-09T11:46:08.118Z</v>
+        <v>2025-02-09T15:06:45.841Z</v>
       </c>
     </row>
     <row r="4">
@@ -449,7 +449,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-02-09T11:46:08.316Z</v>
+        <v>2025-02-09T15:06:46.046Z</v>
       </c>
     </row>
     <row r="5">
@@ -460,7 +460,7 @@
         <v>Pass</v>
       </c>
       <c r="E5" t="str">
-        <v>2025-02-09T11:46:25.234Z</v>
+        <v>2025-02-09T15:07:03.043Z</v>
       </c>
     </row>
     <row r="6">
@@ -471,7 +471,7 @@
         <v>Pass</v>
       </c>
       <c r="E6" t="str">
-        <v>2025-02-09T11:46:31.116Z</v>
+        <v>2025-02-09T15:07:08.933Z</v>
       </c>
     </row>
     <row r="7">
@@ -482,7 +482,7 @@
         <v>Pass</v>
       </c>
       <c r="E7" t="str">
-        <v>2025-02-09T11:46:31.307Z</v>
+        <v>2025-02-09T15:07:09.127Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -413,9 +413,6 @@
         <v>timeStamp</v>
       </c>
       <c r="D1" t="str">
-        <v>Timestamp</v>
-      </c>
-      <c r="E1" t="str">
         <v>TimeStamp</v>
       </c>
     </row>
@@ -427,67 +424,23 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-09T15:06:39.976Z</v>
+        <v>2025-02-16T14:23:41.229Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-02-09T15:06:45.841Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2025-02-09T15:06:46.046Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2025-02-09T15:07:03.043Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2025-02-09T15:07:08.933Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User LEAD PM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E7" t="str">
-        <v>2025-02-09T15:07:09.127Z</v>
+        <v>2025-02-16T14:24:23.504Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,35 +412,21 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
-      <c r="D1" t="str">
-        <v>TimeStamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
+        <v>User AM melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-16T14:23:41.229Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2025-02-16T14:24:23.504Z</v>
+        <v>2025-02-19T09:31:49.646Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,21 +412,46 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
+      <c r="D1" t="str">
+        <v>Timestamp</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Project activity Header</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-19T09:31:49.646Z</v>
+        <v>2025-02-20T09:09:38.428Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2025-02-20T09:09:54.857Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2025-02-20T09:09:58.178Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,16 +415,19 @@
       <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
+      <c r="E1" t="str">
+        <v>TimeStamp</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
+        <v>User AM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-20T09:09:38.428Z</v>
+        <v>2025-02-21T09:48:05.290Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +438,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-02-20T09:09:54.857Z</v>
+        <v>2025-02-21T09:48:13.712Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,12 +449,78 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-02-20T09:09:58.178Z</v>
+        <v>2025-02-21T09:48:13.906Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2025-02-21T09:48:30.729Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2025-02-21T09:48:36.567Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2025-02-21T09:48:36.975Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2025-02-21T09:48:37.136Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2025-02-21T09:49:08.616Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2025-02-21T09:49:08.772Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,7 +427,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-21T09:48:05.290Z</v>
+        <v>2025-02-23T15:38:21.790Z</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +438,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-02-21T09:48:13.712Z</v>
+        <v>2025-02-23T15:38:27.711Z</v>
       </c>
     </row>
     <row r="4">
@@ -449,7 +449,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-02-21T09:48:13.906Z</v>
+        <v>2025-02-23T15:38:27.896Z</v>
       </c>
     </row>
     <row r="5">
@@ -460,7 +460,7 @@
         <v>Pass</v>
       </c>
       <c r="E5" t="str">
-        <v>2025-02-21T09:48:30.729Z</v>
+        <v>2025-02-23T15:38:49.443Z</v>
       </c>
     </row>
     <row r="6">
@@ -471,56 +471,23 @@
         <v>Pass</v>
       </c>
       <c r="E6" t="str">
-        <v>2025-02-21T09:48:36.567Z</v>
+        <v>2025-02-23T15:38:55.347Z</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User LEAD PM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B7" t="str">
         <v>Pass</v>
       </c>
-      <c r="D7" t="str">
-        <v>2025-02-21T09:48:36.975Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D8" t="str">
-        <v>2025-02-21T09:48:37.136Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D9" t="str">
-        <v>2025-02-21T09:49:08.616Z</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D10" t="str">
-        <v>2025-02-21T09:49:08.772Z</v>
+      <c r="E7" t="str">
+        <v>2025-02-23T15:38:55.539Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,82 +412,21 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
-      <c r="D1" t="str">
-        <v>Timestamp</v>
-      </c>
-      <c r="E1" t="str">
-        <v>TimeStamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
+        <v>User AM melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-23T15:38:21.790Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2025-02-23T15:38:27.711Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2025-02-23T15:38:27.896Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2025-02-23T15:38:49.443Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2025-02-23T15:38:55.347Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User LEAD PM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E7" t="str">
-        <v>2025-02-23T15:38:55.539Z</v>
+        <v>2025-02-24T04:14:51.061Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,21 +412,46 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
+      <c r="D1" t="str">
+        <v>Timestamp</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Project activity Header</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-24T04:14:51.061Z</v>
+        <v>2025-02-25T03:56:03.192Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2025-02-25T03:56:14.295Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2025-02-25T03:56:15.948Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-25T03:56:03.192Z</v>
+        <v>2025-02-27T07:04:28.053Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-02-25T03:56:14.295Z</v>
+        <v>2025-02-27T07:04:39.503Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-02-25T03:56:15.948Z</v>
+        <v>2025-02-27T07:04:40.609Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-27T07:04:28.053Z</v>
+        <v>2025-02-28T09:06:44.844Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-02-27T07:04:39.503Z</v>
+        <v>2025-02-28T09:06:55.062Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-02-27T07:04:40.609Z</v>
+        <v>2025-02-28T09:06:55.504Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-02-28T09:06:44.844Z</v>
+        <v>2025-03-02T21:13:03.249Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-02-28T09:06:55.062Z</v>
+        <v>2025-03-02T21:13:13.304Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-02-28T09:06:55.504Z</v>
+        <v>2025-03-02T21:13:14.450Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,61 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Test</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Status</v>
-      </c>
-      <c r="C1" t="str">
-        <v>timeStamp</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Timestamp</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C2" t="str">
-        <v>2025-03-02T21:13:03.249Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2025-03-02T21:13:13.304Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2025-03-02T21:13:14.450Z</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,13 +397,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Test</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Status</v>
+      </c>
+      <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Timestamp</v>
+      </c>
+      <c r="E1" t="str">
+        <v>TimeStamp</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>User AM melakukan akses ke menu Stip Approval</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2025-03-03T17:06:27.550Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2025-03-03T17:06:33.768Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2025-03-03T17:06:37.047Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2025-03-03T17:06:55.859Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2025-03-03T17:07:01.960Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2025-03-03T17:07:02.407Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2025-03-03T17:07:02.605Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2025-03-03T17:07:31.057Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2025-03-03T17:07:31.272Z</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,115 +412,21 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
-      <c r="D1" t="str">
-        <v>Timestamp</v>
-      </c>
-      <c r="E1" t="str">
-        <v>TimeStamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-03T17:06:27.550Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2025-03-03T17:06:33.768Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2025-03-03T17:06:37.047Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2025-03-03T17:06:55.859Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2025-03-03T17:07:01.960Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D7" t="str">
-        <v>2025-03-03T17:07:02.407Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D8" t="str">
-        <v>2025-03-03T17:07:02.605Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D9" t="str">
-        <v>2025-03-03T17:07:31.057Z</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D10" t="str">
-        <v>2025-03-03T17:07:31.272Z</v>
+        <v>2025-03-04T21:41:31.362Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -427,7 +427,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-03T17:06:27.550Z</v>
+        <v>2025-03-04T07:12:03.070Z</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +438,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-03T17:06:33.768Z</v>
+        <v>2025-03-04T07:12:12.033Z</v>
       </c>
     </row>
     <row r="4">
@@ -449,7 +449,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-03T17:06:37.047Z</v>
+        <v>2025-03-04T07:12:12.205Z</v>
       </c>
     </row>
     <row r="5">
@@ -460,7 +460,7 @@
         <v>Pass</v>
       </c>
       <c r="E5" t="str">
-        <v>2025-03-03T17:06:55.859Z</v>
+        <v>2025-03-04T07:12:31.917Z</v>
       </c>
     </row>
     <row r="6">
@@ -471,7 +471,7 @@
         <v>Pass</v>
       </c>
       <c r="E6" t="str">
-        <v>2025-03-03T17:07:01.960Z</v>
+        <v>2025-03-04T07:12:38.069Z</v>
       </c>
     </row>
     <row r="7">
@@ -482,7 +482,7 @@
         <v>Pass</v>
       </c>
       <c r="D7" t="str">
-        <v>2025-03-03T17:07:02.407Z</v>
+        <v>2025-03-04T07:12:38.515Z</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>Pass</v>
       </c>
       <c r="D8" t="str">
-        <v>2025-03-03T17:07:02.605Z</v>
+        <v>2025-03-04T07:12:38.687Z</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +504,7 @@
         <v>Pass</v>
       </c>
       <c r="D9" t="str">
-        <v>2025-03-03T17:07:31.057Z</v>
+        <v>2025-03-04T07:13:07.956Z</v>
       </c>
     </row>
     <row r="10">
@@ -515,7 +515,7 @@
         <v>Pass</v>
       </c>
       <c r="D10" t="str">
-        <v>2025-03-03T17:07:31.272Z</v>
+        <v>2025-03-04T07:13:08.148Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,6 +412,9 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
+      <c r="D1" t="str">
+        <v>Timestamp</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -421,12 +424,34 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-04T21:41:31.362Z</v>
+        <v>2025-03-05T03:46:18.152Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2025-03-05T03:46:30.479Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2025-03-05T03:46:32.558Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-05T03:46:18.152Z</v>
+        <v>2025-03-06T04:12:46.590Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-05T03:46:30.479Z</v>
+        <v>2025-03-06T04:13:01.486Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-05T03:46:32.558Z</v>
+        <v>2025-03-06T04:13:03.028Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-06T04:12:46.590Z</v>
+        <v>2025-03-07T09:00:05.160Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-06T04:13:01.486Z</v>
+        <v>2025-03-07T09:00:17.403Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-06T04:13:03.028Z</v>
+        <v>2025-03-07T09:00:24.338Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,48 +410,56 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>timeStamp</v>
-      </c>
-      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
+        <v>Button Clicked</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-07T09:00:05.160Z</v>
+        <v>2025-03-07T09:50:22.014Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User masuk ke Page Stip Input</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="D3" t="str">
-        <v>2025-03-07T09:00:17.403Z</v>
+      <c r="C3" t="str">
+        <v>2025-03-07T09:50:22.014Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User ID Input</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="D4" t="str">
-        <v>2025-03-07T09:00:24.338Z</v>
+      <c r="C4" t="str">
+        <v>2025-03-07T09:50:22.455Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Password has been inputed</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025-03-07T09:50:22.662Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -421,7 +421,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-07T09:50:22.014Z</v>
+        <v>2025-03-10T01:57:45.637Z</v>
       </c>
     </row>
     <row r="3">
@@ -432,7 +432,7 @@
         <v>Pass</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-03-07T09:50:22.014Z</v>
+        <v>2025-03-10T01:57:45.637Z</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
         <v>Pass</v>
       </c>
       <c r="C4" t="str">
-        <v>2025-03-07T09:50:22.455Z</v>
+        <v>2025-03-10T01:57:46.099Z</v>
       </c>
     </row>
     <row r="5">
@@ -454,7 +454,7 @@
         <v>Pass</v>
       </c>
       <c r="C5" t="str">
-        <v>2025-03-07T09:50:22.662Z</v>
+        <v>2025-03-10T01:57:46.316Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,56 +410,117 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
         <v>Timestamp</v>
+      </c>
+      <c r="E1" t="str">
+        <v>TimeStamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Button Clicked</v>
+        <v>User AM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-10T01:57:45.637Z</v>
+        <v>2025-03-10T06:20:10.619Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User masuk ke Page Stip Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-03-10T01:57:45.637Z</v>
+      <c r="D3" t="str">
+        <v>2025-03-10T06:20:17.377Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User ID Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="C4" t="str">
-        <v>2025-03-10T01:57:46.099Z</v>
+      <c r="D4" t="str">
+        <v>2025-03-10T06:20:20.135Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Password has been inputed</v>
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B5" t="str">
         <v>Pass</v>
       </c>
-      <c r="C5" t="str">
-        <v>2025-03-10T01:57:46.316Z</v>
+      <c r="E5" t="str">
+        <v>2025-03-10T06:20:49.152Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2025-03-10T06:20:56.137Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2025-03-10T06:20:56.558Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2025-03-10T06:20:56.738Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2025-03-10T06:21:20.967Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2025-03-10T06:21:21.129Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,117 +410,56 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>timeStamp</v>
-      </c>
-      <c r="D1" t="str">
         <v>Timestamp</v>
-      </c>
-      <c r="E1" t="str">
-        <v>TimeStamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
+        <v>Button Clicked</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-10T06:20:10.619Z</v>
+        <v>2025-03-10T16:26:23.294Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User masuk ke Page Stip Input</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="D3" t="str">
-        <v>2025-03-10T06:20:17.377Z</v>
+      <c r="C3" t="str">
+        <v>2025-03-10T16:26:23.294Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User ID Input</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="D4" t="str">
-        <v>2025-03-10T06:20:20.135Z</v>
+      <c r="C4" t="str">
+        <v>2025-03-10T16:26:23.904Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
+        <v>Password has been inputed</v>
       </c>
       <c r="B5" t="str">
         <v>Pass</v>
       </c>
-      <c r="E5" t="str">
-        <v>2025-03-10T06:20:49.152Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2025-03-10T06:20:56.137Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D7" t="str">
-        <v>2025-03-10T06:20:56.558Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D8" t="str">
-        <v>2025-03-10T06:20:56.738Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D9" t="str">
-        <v>2025-03-10T06:21:20.967Z</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D10" t="str">
-        <v>2025-03-10T06:21:21.129Z</v>
+      <c r="C5" t="str">
+        <v>2025-03-10T16:26:24.125Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -427,7 +427,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-10T06:20:10.619Z</v>
+        <v>2025-03-11T01:41:25.997Z</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +438,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-10T06:20:17.377Z</v>
+        <v>2025-03-11T01:41:32.042Z</v>
       </c>
     </row>
     <row r="4">
@@ -449,7 +449,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-10T06:20:20.135Z</v>
+        <v>2025-03-11T01:41:32.223Z</v>
       </c>
     </row>
     <row r="5">
@@ -460,7 +460,7 @@
         <v>Pass</v>
       </c>
       <c r="E5" t="str">
-        <v>2025-03-10T06:20:49.152Z</v>
+        <v>2025-03-11T01:41:58.773Z</v>
       </c>
     </row>
     <row r="6">
@@ -471,7 +471,7 @@
         <v>Pass</v>
       </c>
       <c r="E6" t="str">
-        <v>2025-03-10T06:20:56.137Z</v>
+        <v>2025-03-11T01:42:05.551Z</v>
       </c>
     </row>
     <row r="7">
@@ -482,7 +482,7 @@
         <v>Pass</v>
       </c>
       <c r="D7" t="str">
-        <v>2025-03-10T06:20:56.558Z</v>
+        <v>2025-03-11T01:42:05.991Z</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>Pass</v>
       </c>
       <c r="D8" t="str">
-        <v>2025-03-10T06:20:56.738Z</v>
+        <v>2025-03-11T01:42:06.181Z</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +504,7 @@
         <v>Pass</v>
       </c>
       <c r="D9" t="str">
-        <v>2025-03-10T06:21:20.967Z</v>
+        <v>2025-03-11T01:42:31.611Z</v>
       </c>
     </row>
     <row r="10">
@@ -515,7 +515,7 @@
         <v>Pass</v>
       </c>
       <c r="D10" t="str">
-        <v>2025-03-10T06:21:21.129Z</v>
+        <v>2025-03-11T01:42:31.806Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,117 +410,56 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>timeStamp</v>
-      </c>
-      <c r="D1" t="str">
         <v>Timestamp</v>
-      </c>
-      <c r="E1" t="str">
-        <v>TimeStamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
+        <v>Button Clicked</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-11T01:41:25.997Z</v>
+        <v>2025-03-12T01:49:14.529Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User masuk ke Page Stip Input</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="D3" t="str">
-        <v>2025-03-11T01:41:32.042Z</v>
+      <c r="C3" t="str">
+        <v>2025-03-12T01:49:14.529Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User ID Input</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="D4" t="str">
-        <v>2025-03-11T01:41:32.223Z</v>
+      <c r="C4" t="str">
+        <v>2025-03-12T01:49:15.390Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
+        <v>Passworhasbeeninputed</v>
       </c>
       <c r="B5" t="str">
         <v>Pass</v>
       </c>
-      <c r="E5" t="str">
-        <v>2025-03-11T01:41:58.773Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2025-03-11T01:42:05.551Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D7" t="str">
-        <v>2025-03-11T01:42:05.991Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D8" t="str">
-        <v>2025-03-11T01:42:06.181Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D9" t="str">
-        <v>2025-03-11T01:42:31.611Z</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D10" t="str">
-        <v>2025-03-11T01:42:31.806Z</v>
+      <c r="C5" t="str">
+        <v>2025-03-12T01:49:15.603Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,56 +410,117 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
         <v>Timestamp</v>
+      </c>
+      <c r="E1" t="str">
+        <v>TimeStamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Button Clicked</v>
+        <v>User AM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-12T01:49:14.529Z</v>
+        <v>2025-03-12T04:58:04.153Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User masuk ke Page Stip Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-03-12T01:49:14.529Z</v>
+      <c r="D3" t="str">
+        <v>2025-03-12T04:58:10.108Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User ID Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="C4" t="str">
-        <v>2025-03-12T01:49:15.390Z</v>
+      <c r="D4" t="str">
+        <v>2025-03-12T04:58:10.271Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Passworhasbeeninputed</v>
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B5" t="str">
         <v>Pass</v>
       </c>
-      <c r="C5" t="str">
-        <v>2025-03-12T01:49:15.603Z</v>
+      <c r="E5" t="str">
+        <v>2025-03-12T04:58:36.656Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2025-03-12T04:58:42.661Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2025-03-12T04:58:43.095Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2025-03-12T04:58:43.266Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2025-03-12T04:59:06.984Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2025-03-12T04:59:07.158Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,19 +415,16 @@
       <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
-      <c r="E1" t="str">
-        <v>TimeStamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-12T04:58:04.153Z</v>
+        <v>2025-03-13T00:42:12.074Z</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-12T04:58:10.108Z</v>
+        <v>2025-03-13T00:42:26.756Z</v>
       </c>
     </row>
     <row r="4">
@@ -449,78 +446,12 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-12T04:58:10.271Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2025-03-12T04:58:36.656Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2025-03-12T04:58:42.661Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D7" t="str">
-        <v>2025-03-12T04:58:43.095Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D8" t="str">
-        <v>2025-03-12T04:58:43.266Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D9" t="str">
-        <v>2025-03-12T04:59:06.984Z</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D10" t="str">
-        <v>2025-03-12T04:59:07.158Z</v>
+        <v>2025-03-13T00:42:28.312Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,48 +410,133 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>timeStamp</v>
-      </c>
-      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
+        <v>Button Clicked</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-13T00:42:12.074Z</v>
+        <v>2025-03-14T06:18:56.576Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User masuk ke Page Stip Input</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="D3" t="str">
-        <v>2025-03-13T00:42:26.756Z</v>
+      <c r="C3" t="str">
+        <v>2025-03-14T06:18:56.576Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User ID Input</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="D4" t="str">
-        <v>2025-03-13T00:42:28.312Z</v>
+      <c r="C4" t="str">
+        <v>2025-03-14T06:18:59.139Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Password has been inputed</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025-03-14T06:18:59.373Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>User memilih STIPCategory di dropdown Colocation STIPCategory</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2025-03-14T06:19:03.354Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>User memilih Product di dropdown Colocation Product</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2025-03-14T06:19:04.108Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>User memilih Customer di dropdown Colocation Customer</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2025-03-14T06:19:07.578Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>User memilih region di dropdown Colocation Region</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2025-03-14T06:19:09.053Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>User melakukan click tombol Colocation Price Amount Popup</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2025-03-14T06:19:09.893Z</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>User melakukan click tombol Price Amount Popup</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2025-03-14T06:19:12.125Z</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>User melakukan click tombol Colocation Site Amount Popup</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2025-03-14T06:19:16.817Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C12"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,133 +410,48 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Button Clicked</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-14T06:18:56.576Z</v>
+        <v>2025-03-17T04:59:44.390Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User masuk ke Page Stip Input</v>
+        <v>User AM melakukan klik tombol Search di SPK Project</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-03-14T06:18:56.576Z</v>
+      <c r="D3" t="str">
+        <v>2025-03-17T04:59:58.944Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User ID Input</v>
+        <v>User AM melakukan klik tombol Search di SPK Project</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="C4" t="str">
-        <v>2025-03-14T06:18:59.139Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Password has been inputed</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2025-03-14T06:18:59.373Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User memilih STIPCategory di dropdown Colocation STIPCategory</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C6" t="str">
-        <v>2025-03-14T06:19:03.354Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User memilih Product di dropdown Colocation Product</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C7" t="str">
-        <v>2025-03-14T06:19:04.108Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User memilih Customer di dropdown Colocation Customer</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C8" t="str">
-        <v>2025-03-14T06:19:07.578Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User memilih region di dropdown Colocation Region</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C9" t="str">
-        <v>2025-03-14T06:19:09.053Z</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>User melakukan click tombol Colocation Price Amount Popup</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C10" t="str">
-        <v>2025-03-14T06:19:09.893Z</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>User melakukan click tombol Price Amount Popup</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C11" t="str">
-        <v>2025-03-14T06:19:12.125Z</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>User melakukan click tombol Colocation Site Amount Popup</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C12" t="str">
-        <v>2025-03-14T06:19:16.817Z</v>
+      <c r="D4" t="str">
+        <v>2025-03-17T05:00:00.341Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,43 +415,112 @@
       <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
+      <c r="E1" t="str">
+        <v>TimeStamp</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
+        <v>User AM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-17T04:59:44.390Z</v>
+        <v>2025-03-18T01:20:13.370Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di SPK Project</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-17T04:59:58.944Z</v>
+        <v>2025-03-18T01:20:19.449Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di SPK Project</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-17T05:00:00.341Z</v>
+        <v>2025-03-18T01:20:21.522Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2025-03-18T01:20:39.354Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2025-03-18T01:20:45.006Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2025-03-18T01:20:45.415Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2025-03-18T01:20:45.587Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2025-03-18T01:21:22.448Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2025-03-18T01:21:22.666Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,19 +415,16 @@
       <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
-      <c r="E1" t="str">
-        <v>TimeStamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-18T01:20:13.370Z</v>
+        <v>2025-03-20T03:42:39.054Z</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-18T01:20:19.449Z</v>
+        <v>2025-03-20T03:42:53.048Z</v>
       </c>
     </row>
     <row r="4">
@@ -449,78 +446,12 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-18T01:20:21.522Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2025-03-18T01:20:39.354Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2025-03-18T01:20:45.006Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D7" t="str">
-        <v>2025-03-18T01:20:45.415Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D8" t="str">
-        <v>2025-03-18T01:20:45.587Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D9" t="str">
-        <v>2025-03-18T01:21:22.448Z</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D10" t="str">
-        <v>2025-03-18T01:21:22.666Z</v>
+        <v>2025-03-20T03:42:54.295Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-20T03:42:39.054Z</v>
+        <v>2025-03-24T04:56:53.340Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-03-20T03:42:53.048Z</v>
+        <v>2025-03-24T04:57:04.918Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-03-20T03:42:54.295Z</v>
+        <v>2025-03-24T04:57:07.350Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,48 +410,56 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>timeStamp</v>
-      </c>
-      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
+        <v>Button Clicked</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-24T04:56:53.340Z</v>
+        <v>2025-03-28T02:27:13.104Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User masuk ke Page Stip Input</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="D3" t="str">
-        <v>2025-03-24T04:57:04.918Z</v>
+      <c r="C3" t="str">
+        <v>2025-03-28T02:27:13.104Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User ID Input</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="D4" t="str">
-        <v>2025-03-24T04:57:07.350Z</v>
+      <c r="C4" t="str">
+        <v>2025-03-28T02:27:13.583Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Password has been inputed</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025-03-28T02:27:13.802Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,56 +410,48 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Button Clicked</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-03-28T02:27:13.104Z</v>
+        <v>2025-04-08T03:55:10.772Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User masuk ke Page Stip Input</v>
+        <v>User AM melakukan klik tombol Search di SPK Project</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-03-28T02:27:13.104Z</v>
+      <c r="D3" t="str">
+        <v>2025-04-08T03:55:27.069Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User ID Input</v>
+        <v>User AM melakukan klik tombol Search di SPK Project</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="C4" t="str">
-        <v>2025-03-28T02:27:13.583Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Password has been inputed</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2025-03-28T02:27:13.802Z</v>
+      <c r="D4" t="str">
+        <v>2025-04-08T03:55:29.776Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -424,29 +424,29 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-04-08T03:55:10.772Z</v>
+        <v>2025-04-14T09:30:03.561Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di SPK Project</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-04-08T03:55:27.069Z</v>
+        <v>2025-04-14T09:30:19.626Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di SPK Project</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-04-08T03:55:29.776Z</v>
+        <v>2025-04-14T09:30:24.597Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-04-14T09:30:03.561Z</v>
+        <v>2025-04-23T06:55:19.419Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-04-14T09:30:19.626Z</v>
+        <v>2025-04-23T06:55:31.616Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-04-14T09:30:24.597Z</v>
+        <v>2025-04-23T06:55:33.041Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,48 +410,56 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>timeStamp</v>
-      </c>
-      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
+        <v>Button Clicked</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-04-23T06:55:19.419Z</v>
+        <v>2025-04-28T07:16:45.401Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User masuk ke Page Stip Input</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="D3" t="str">
-        <v>2025-04-23T06:55:31.616Z</v>
+      <c r="C3" t="str">
+        <v>2025-04-28T07:16:45.403Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User ID Input</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="D4" t="str">
-        <v>2025-04-23T06:55:33.041Z</v>
+      <c r="C4" t="str">
+        <v>2025-04-28T07:16:46.078Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v xml:space="preserve">Passworhasben </v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025-04-28T07:16:46.297Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,56 +410,106 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
         <v>Timestamp</v>
+      </c>
+      <c r="E1" t="str">
+        <v>TimeStamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Button Clicked</v>
+        <v>User AM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-04-28T07:16:45.401Z</v>
+        <v>2025-04-29T09:58:05.107Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User masuk ke Page Stip Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-04-28T07:16:45.403Z</v>
+      <c r="D3" t="str">
+        <v>2025-04-29T09:58:11.072Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User ID Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="C4" t="str">
-        <v>2025-04-28T07:16:46.078Z</v>
+      <c r="D4" t="str">
+        <v>2025-04-29T09:58:11.259Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v xml:space="preserve">Passworhasben </v>
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B5" t="str">
         <v>Pass</v>
       </c>
-      <c r="C5" t="str">
-        <v>2025-04-28T07:16:46.297Z</v>
+      <c r="E5" t="str">
+        <v>2025-04-29T09:58:29.009Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2025-04-29T09:58:34.861Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>User LEAD PM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E7" t="str">
+        <v>2025-04-29T09:58:35.019Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>User ARO melakukan input SONumber di Stip approval</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E8" t="str">
+        <v>2025-04-29T09:59:04.362Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>User ARO melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E9" t="str">
+        <v>2025-04-29T09:59:04.600Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,101 +415,43 @@
       <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
-      <c r="E1" t="str">
-        <v>TimeStamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-04-29T09:58:05.107Z</v>
+        <v>2025-05-03T04:10:10.511Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User AM melakukan klik tombol Search di SPK Project</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-04-29T09:58:11.072Z</v>
+        <v>2025-05-03T04:10:54.005Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User AM melakukan klik tombol Search di SPK Project</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-04-29T09:58:11.259Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2025-04-29T09:58:29.009Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2025-04-29T09:58:34.861Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User LEAD PM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E7" t="str">
-        <v>2025-04-29T09:58:35.019Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User ARO melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E8" t="str">
-        <v>2025-04-29T09:59:04.362Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User ARO melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E9" t="str">
-        <v>2025-04-29T09:59:04.600Z</v>
+        <v>2025-05-03T04:10:59.629Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,43 +415,112 @@
       <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
+      <c r="E1" t="str">
+        <v>TimeStamp</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
+        <v>User AM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-05-03T04:10:10.511Z</v>
+        <v>2025-05-03T11:10:42.454Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di SPK Project</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-05-03T04:10:54.005Z</v>
+        <v>2025-05-03T11:10:53.038Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di SPK Project</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-05-03T04:10:59.629Z</v>
+        <v>2025-05-03T11:10:53.263Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2025-05-03T11:11:38.051Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2025-05-03T11:11:44.063Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2025-05-03T11:11:44.472Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2025-05-03T11:11:44.685Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2025-05-03T11:12:34.957Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2025-05-03T11:12:35.143Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,19 +415,16 @@
       <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
-      <c r="E1" t="str">
-        <v>TimeStamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-05-03T11:10:42.454Z</v>
+        <v>2025-05-06T05:52:04.966Z</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-05-03T11:10:53.038Z</v>
+        <v>2025-05-06T05:52:16.575Z</v>
       </c>
     </row>
     <row r="4">
@@ -449,78 +446,12 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-05-03T11:10:53.263Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2025-05-03T11:11:38.051Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2025-05-03T11:11:44.063Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D7" t="str">
-        <v>2025-05-03T11:11:44.472Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D8" t="str">
-        <v>2025-05-03T11:11:44.685Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D9" t="str">
-        <v>2025-05-03T11:12:34.957Z</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D10" t="str">
-        <v>2025-05-03T11:12:35.143Z</v>
+        <v>2025-05-06T05:52:17.561Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,48 +410,144 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>timeStamp</v>
-      </c>
-      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
+        <v>Button Clicked</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-05-06T05:52:04.966Z</v>
+        <v>2025-05-08T04:52:29.992Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User masuk ke Page Stip Input</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="D3" t="str">
-        <v>2025-05-06T05:52:16.575Z</v>
+      <c r="C3" t="str">
+        <v>2025-05-08T04:52:29.992Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User ID Input</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="D4" t="str">
-        <v>2025-05-06T05:52:17.561Z</v>
+      <c r="C4" t="str">
+        <v>2025-05-08T04:52:32.615Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Password has been inputed</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025-05-08T04:52:32.830Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>User memilih STIPCategory di dropdown Colocation STIPCategory</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2025-05-08T04:52:58.725Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>User memilih Product di dropdown Colocation Product</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2025-05-08T04:52:59.295Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>User memilih Customer di dropdown Colocation Customer</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2025-05-08T04:53:01.066Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>User memilih Customer di dropdown Colocation Customer</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2025-05-08T04:53:04.596Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>User memilih region di dropdown Colocation Region</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2025-05-08T04:53:09.140Z</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>User melakukan click tombol Colocation Price Amount Popup</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2025-05-08T04:53:09.713Z</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>User melakukan click tombol Price Amount Popup</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2025-05-08T04:53:11.472Z</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>User melakukan click tombol Colocation Price Amount Popup</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2025-05-08T04:53:16.292Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,144 +410,48 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Button Clicked</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-05-08T04:52:29.992Z</v>
+        <v>2025-05-13T06:32:46.852Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User masuk ke Page Stip Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-05-08T04:52:29.992Z</v>
+      <c r="D3" t="str">
+        <v>2025-05-13T06:33:03.667Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User ID Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="C4" t="str">
-        <v>2025-05-08T04:52:32.615Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Password has been inputed</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2025-05-08T04:52:32.830Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User memilih STIPCategory di dropdown Colocation STIPCategory</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C6" t="str">
-        <v>2025-05-08T04:52:58.725Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User memilih Product di dropdown Colocation Product</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C7" t="str">
-        <v>2025-05-08T04:52:59.295Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User memilih Customer di dropdown Colocation Customer</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C8" t="str">
-        <v>2025-05-08T04:53:01.066Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User memilih Customer di dropdown Colocation Customer</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C9" t="str">
-        <v>2025-05-08T04:53:04.596Z</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>User memilih region di dropdown Colocation Region</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C10" t="str">
-        <v>2025-05-08T04:53:09.140Z</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>User melakukan click tombol Colocation Price Amount Popup</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C11" t="str">
-        <v>2025-05-08T04:53:09.713Z</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>User melakukan click tombol Price Amount Popup</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C12" t="str">
-        <v>2025-05-08T04:53:11.472Z</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>User melakukan click tombol Colocation Price Amount Popup</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C13" t="str">
-        <v>2025-05-08T04:53:16.292Z</v>
+      <c r="D4" t="str">
+        <v>2025-05-13T06:33:04.760Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,48 +410,56 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>timeStamp</v>
-      </c>
-      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
+        <v>Button Clicked</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-05-13T06:32:46.852Z</v>
+        <v>2025-05-15T08:05:58.045Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User masuk ke Page Stip Input</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="D3" t="str">
-        <v>2025-05-13T06:33:03.667Z</v>
+      <c r="C3" t="str">
+        <v>2025-05-15T08:05:58.045Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User ID Input</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="D4" t="str">
-        <v>2025-05-13T06:33:04.760Z</v>
+      <c r="C4" t="str">
+        <v>2025-05-15T08:05:58.529Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Password has been inputed</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025-05-15T08:05:58.754Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,56 +410,48 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Button Clicked</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-05-15T08:05:58.045Z</v>
+        <v>2025-05-26T03:24:25.300Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User masuk ke Page Stip Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-05-15T08:05:58.045Z</v>
+      <c r="D3" t="str">
+        <v>2025-05-26T03:24:35.318Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User ID Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="C4" t="str">
-        <v>2025-05-15T08:05:58.529Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Password has been inputed</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2025-05-15T08:05:58.754Z</v>
+      <c r="D4" t="str">
+        <v>2025-05-26T03:24:37.334Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -424,29 +424,29 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-05-26T03:24:25.300Z</v>
+        <v>2025-06-05T06:19:22.285Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User AM melakukan klik tombol Search di SPK Project</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-05-26T03:24:35.318Z</v>
+        <v>2025-06-05T06:19:41.895Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User AM melakukan klik tombol Search di SPK Project</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-05-26T03:24:37.334Z</v>
+        <v>2025-06-05T06:19:43.874Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,9 +412,6 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
-      <c r="D1" t="str">
-        <v>Timestamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -424,34 +421,12 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-06-05T06:19:22.285Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di SPK Project</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2025-06-05T06:19:41.895Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di SPK Project</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2025-06-05T06:19:43.874Z</v>
+        <v>2025-06-13T03:25:45.445Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,23 +410,34 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>timeStamp</v>
+        <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
+        <v>Button Clicked</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-06-13T03:25:45.445Z</v>
+        <v>2025-06-17T03:39:19.055Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>User masuk ke Page Stip Input</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2025-06-17T03:39:19.055Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,34 +410,117 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
         <v>Timestamp</v>
+      </c>
+      <c r="E1" t="str">
+        <v>TimeStamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Button Clicked</v>
+        <v>User AM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-06-17T03:39:19.055Z</v>
+        <v>2025-06-18T01:45:39.087Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User masuk ke Page Stip Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-06-17T03:39:19.055Z</v>
+      <c r="D3" t="str">
+        <v>2025-06-18T01:45:47.846Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2025-06-18T01:45:48.017Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2025-06-18T01:46:09.445Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2025-06-18T01:46:15.463Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2025-06-18T01:46:15.883Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2025-06-18T01:46:16.044Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2025-06-18T01:46:57.141Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2025-06-18T01:46:57.299Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,112 +415,43 @@
       <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
-      <c r="E1" t="str">
-        <v>TimeStamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-06-18T01:45:39.087Z</v>
+        <v>2025-06-22T03:39:04.203Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User AM melakukan klik tombol Search di SPK Project</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-06-18T01:45:47.846Z</v>
+        <v>2025-06-22T03:39:20.503Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User AM melakukan klik tombol Search di SPK Project</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-06-18T01:45:48.017Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2025-06-18T01:46:09.445Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2025-06-18T01:46:15.463Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D7" t="str">
-        <v>2025-06-18T01:46:15.883Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D8" t="str">
-        <v>2025-06-18T01:46:16.044Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D9" t="str">
-        <v>2025-06-18T01:46:57.141Z</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D10" t="str">
-        <v>2025-06-18T01:46:57.299Z</v>
+        <v>2025-06-22T03:39:21.328Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -427,7 +427,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-06-18T01:45:39.087Z</v>
+        <v>2025-06-19T04:52:26.166Z</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +438,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-06-18T01:45:47.846Z</v>
+        <v>2025-06-19T04:52:32.368Z</v>
       </c>
     </row>
     <row r="4">
@@ -449,7 +449,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-06-18T01:45:48.017Z</v>
+        <v>2025-06-19T04:52:32.525Z</v>
       </c>
     </row>
     <row r="5">
@@ -460,7 +460,7 @@
         <v>Pass</v>
       </c>
       <c r="E5" t="str">
-        <v>2025-06-18T01:46:09.445Z</v>
+        <v>2025-06-19T04:52:50.233Z</v>
       </c>
     </row>
     <row r="6">
@@ -471,7 +471,7 @@
         <v>Pass</v>
       </c>
       <c r="E6" t="str">
-        <v>2025-06-18T01:46:15.463Z</v>
+        <v>2025-06-19T04:52:56.494Z</v>
       </c>
     </row>
     <row r="7">
@@ -482,7 +482,7 @@
         <v>Pass</v>
       </c>
       <c r="D7" t="str">
-        <v>2025-06-18T01:46:15.883Z</v>
+        <v>2025-06-19T04:52:56.904Z</v>
       </c>
     </row>
     <row r="8">
@@ -493,7 +493,7 @@
         <v>Pass</v>
       </c>
       <c r="D8" t="str">
-        <v>2025-06-18T01:46:16.044Z</v>
+        <v>2025-06-19T04:52:57.062Z</v>
       </c>
     </row>
     <row r="9">
@@ -504,7 +504,7 @@
         <v>Pass</v>
       </c>
       <c r="D9" t="str">
-        <v>2025-06-18T01:46:57.141Z</v>
+        <v>2025-06-19T04:53:38.654Z</v>
       </c>
     </row>
     <row r="10">
@@ -515,7 +515,7 @@
         <v>Pass</v>
       </c>
       <c r="D10" t="str">
-        <v>2025-06-18T01:46:57.299Z</v>
+        <v>2025-06-19T04:53:38.814Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,112 +415,43 @@
       <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
-      <c r="E1" t="str">
-        <v>TimeStamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-06-19T04:52:26.166Z</v>
+        <v>2025-07-02T07:29:42.675Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User AM melakukan klik tombol Search di SPK Project</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-06-19T04:52:32.368Z</v>
+        <v>2025-07-02T07:30:43.532Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User AM melakukan klik tombol Search di SPK Project</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-06-19T04:52:32.525Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2025-06-19T04:52:50.233Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2025-06-19T04:52:56.494Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D7" t="str">
-        <v>2025-06-19T04:52:56.904Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D8" t="str">
-        <v>2025-06-19T04:52:57.062Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D9" t="str">
-        <v>2025-06-19T04:53:38.654Z</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D10" t="str">
-        <v>2025-06-19T04:53:38.814Z</v>
+        <v>2025-07-02T07:30:53.001Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -424,29 +424,29 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-02T07:29:42.675Z</v>
+        <v>2025-07-03T05:42:18.920Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di SPK Project</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-07-02T07:30:43.532Z</v>
+        <v>2025-07-03T05:42:28.853Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di SPK Project</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-07-02T07:30:53.001Z</v>
+        <v>2025-07-03T05:42:30.287Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,48 +410,56 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>timeStamp</v>
-      </c>
-      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
+        <v>Button Clicked</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-03T05:42:18.920Z</v>
+        <v>2025-07-15T09:25:55.377Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User masuk ke Page Stip Input</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="D3" t="str">
-        <v>2025-07-03T05:42:28.853Z</v>
+      <c r="C3" t="str">
+        <v>2025-07-15T09:25:55.378Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User ID Input</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="D4" t="str">
-        <v>2025-07-03T05:42:30.287Z</v>
+      <c r="C4" t="str">
+        <v>2025-07-15T09:25:57.871Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Password has been inputed</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025-07-15T09:25:58.080Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,56 +410,48 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Button Clicked</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-15T09:25:55.377Z</v>
+        <v>2025-07-18T07:57:39.664Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User masuk ke Page Stip Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-07-15T09:25:55.378Z</v>
+      <c r="D3" t="str">
+        <v>2025-07-18T07:58:20.100Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User ID Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="C4" t="str">
-        <v>2025-07-15T09:25:57.871Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Password has been inputed</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2025-07-15T09:25:58.080Z</v>
+      <c r="D4" t="str">
+        <v>2025-07-18T07:58:22.565Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,16 +415,19 @@
       <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
+      <c r="E1" t="str">
+        <v>TimeStamp</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
+        <v>User AM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-18T07:57:39.664Z</v>
+        <v>2025-07-19T08:59:50.710Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +438,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-07-18T07:58:20.100Z</v>
+        <v>2025-07-19T09:00:22.803Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,12 +449,56 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-07-18T07:58:22.565Z</v>
+        <v>2025-07-19T09:00:22.987Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2025-07-19T09:00:41.370Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2025-07-19T09:00:47.334Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2025-07-19T09:00:47.842Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2025-07-19T09:00:48.096Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,95 +410,155 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>timeStamp</v>
-      </c>
-      <c r="D1" t="str">
         <v>Timestamp</v>
-      </c>
-      <c r="E1" t="str">
-        <v>TimeStamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
+        <v>Button Clicked</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-19T08:59:50.710Z</v>
+        <v>2025-07-21T18:18:37.427Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User masuk ke Page Stip Input</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="D3" t="str">
-        <v>2025-07-19T09:00:22.803Z</v>
+      <c r="C3" t="str">
+        <v>2025-07-21T18:18:37.427Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User ID Input</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="D4" t="str">
-        <v>2025-07-19T09:00:22.987Z</v>
+      <c r="C4" t="str">
+        <v>2025-07-21T18:18:41.374Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
+        <v>Password has been inputed</v>
       </c>
       <c r="B5" t="str">
         <v>Pass</v>
       </c>
-      <c r="E5" t="str">
-        <v>2025-07-19T09:00:41.370Z</v>
+      <c r="C5" t="str">
+        <v>2025-07-21T18:18:41.596Z</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
+        <v>User memilih STIPCategory di dropdown Colocation STIPCategory</v>
       </c>
       <c r="B6" t="str">
         <v>Pass</v>
       </c>
-      <c r="E6" t="str">
-        <v>2025-07-19T09:00:47.334Z</v>
+      <c r="C6" t="str">
+        <v>2025-07-21T18:18:52.302Z</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User memilih Product di dropdown Colocation Product</v>
       </c>
       <c r="B7" t="str">
         <v>Pass</v>
       </c>
-      <c r="D7" t="str">
-        <v>2025-07-19T09:00:47.842Z</v>
+      <c r="C7" t="str">
+        <v>2025-07-21T18:18:52.928Z</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User memilih Customer di dropdown Colocation Customer</v>
       </c>
       <c r="B8" t="str">
         <v>Pass</v>
       </c>
-      <c r="D8" t="str">
-        <v>2025-07-19T09:00:48.096Z</v>
+      <c r="C8" t="str">
+        <v>2025-07-21T18:18:58.405Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>User memilih region di dropdown Colocation Region</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2025-07-21T18:19:05.403Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>User melakukan click tombol Colocation Price Amount Popup</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2025-07-21T18:19:05.814Z</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>User melakukan click tombol Price Amount Popup</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2025-07-21T18:19:08.135Z</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>User melakukan click tombol Colocation Site Amount Popup</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2025-07-21T18:19:13.188Z</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>User AM melakukan klik tombol Search di Stip input</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2025-07-21T18:19:18.035Z</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>User AM melakukan klik tombol Search di Stip input</v>
+      </c>
+      <c r="B14" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C14" t="str">
+        <v>2025-07-21T18:19:18.494Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,155 +410,95 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
         <v>Timestamp</v>
+      </c>
+      <c r="E1" t="str">
+        <v>TimeStamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Button Clicked</v>
+        <v>User AM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-21T18:18:37.427Z</v>
+        <v>2025-07-25T07:08:39.004Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User masuk ke Page Stip Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-07-21T18:18:37.427Z</v>
+      <c r="D3" t="str">
+        <v>2025-07-25T07:08:48.043Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User ID Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="C4" t="str">
-        <v>2025-07-21T18:18:41.374Z</v>
+      <c r="D4" t="str">
+        <v>2025-07-25T07:08:48.489Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Password has been inputed</v>
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B5" t="str">
         <v>Pass</v>
       </c>
-      <c r="C5" t="str">
-        <v>2025-07-21T18:18:41.596Z</v>
+      <c r="E5" t="str">
+        <v>2025-07-25T07:09:18.845Z</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>User memilih STIPCategory di dropdown Colocation STIPCategory</v>
+        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
       </c>
       <c r="B6" t="str">
         <v>Pass</v>
       </c>
-      <c r="C6" t="str">
-        <v>2025-07-21T18:18:52.302Z</v>
+      <c r="E6" t="str">
+        <v>2025-07-25T07:09:25.719Z</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>User memilih Product di dropdown Colocation Product</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B7" t="str">
         <v>Pass</v>
       </c>
-      <c r="C7" t="str">
-        <v>2025-07-21T18:18:52.928Z</v>
+      <c r="D7" t="str">
+        <v>2025-07-25T07:09:26.547Z</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>User memilih Customer di dropdown Colocation Customer</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B8" t="str">
         <v>Pass</v>
       </c>
-      <c r="C8" t="str">
-        <v>2025-07-21T18:18:58.405Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User memilih region di dropdown Colocation Region</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C9" t="str">
-        <v>2025-07-21T18:19:05.403Z</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>User melakukan click tombol Colocation Price Amount Popup</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C10" t="str">
-        <v>2025-07-21T18:19:05.814Z</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>User melakukan click tombol Price Amount Popup</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C11" t="str">
-        <v>2025-07-21T18:19:08.135Z</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>User melakukan click tombol Colocation Site Amount Popup</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C12" t="str">
-        <v>2025-07-21T18:19:13.188Z</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>User AM melakukan klik tombol Search di Stip input</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C13" t="str">
-        <v>2025-07-21T18:19:18.035Z</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>User AM melakukan klik tombol Search di Stip input</v>
-      </c>
-      <c r="B14" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C14" t="str">
-        <v>2025-07-21T18:19:18.494Z</v>
+      <c r="D8" t="str">
+        <v>2025-07-25T07:09:27.104Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E8"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,19 +415,16 @@
       <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
-      <c r="E1" t="str">
-        <v>TimeStamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-25T07:08:39.004Z</v>
+        <v>2025-07-28T07:50:41.846Z</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-07-25T07:08:48.043Z</v>
+        <v>2025-07-28T07:50:54.359Z</v>
       </c>
     </row>
     <row r="4">
@@ -449,56 +446,12 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-07-25T07:08:48.489Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2025-07-25T07:09:18.845Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2025-07-25T07:09:25.719Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D7" t="str">
-        <v>2025-07-25T07:09:26.547Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D8" t="str">
-        <v>2025-07-25T07:09:27.104Z</v>
+        <v>2025-07-28T07:50:57.693Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,9 +412,6 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
-      <c r="D1" t="str">
-        <v>Timestamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -424,34 +421,12 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-28T07:50:41.846Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2025-07-28T07:50:54.359Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2025-07-28T07:50:57.693Z</v>
+        <v>2025-07-30T07:11:19.327Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,6 +412,9 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
+      <c r="D1" t="str">
+        <v>Timestamp</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -421,12 +424,34 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-07-30T07:11:19.327Z</v>
+        <v>2025-08-10T08:34:06.570Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2025-08-10T08:34:21.898Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2025-08-10T08:34:25.577Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -424,29 +424,29 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-08-10T08:34:06.570Z</v>
+        <v>2025-08-11T05:00:08.046Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User AM melakukan klik tombol Search di SPK Project</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-08-10T08:34:21.898Z</v>
+        <v>2025-08-11T05:00:26.613Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User AM melakukan klik tombol Search di SPK Project</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-08-10T08:34:25.577Z</v>
+        <v>2025-08-11T05:00:29.396Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,43 +415,112 @@
       <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
+      <c r="E1" t="str">
+        <v>TimeStamp</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
+        <v>User AM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-08-11T05:00:08.046Z</v>
+        <v>2025-08-19T07:40:41.863Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di SPK Project</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-08-11T05:00:26.613Z</v>
+        <v>2025-08-19T07:40:53.695Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di SPK Project</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-08-11T05:00:29.396Z</v>
+        <v>2025-08-19T07:40:53.858Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E5" t="str">
+        <v>2025-08-19T07:42:15.961Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="E6" t="str">
+        <v>2025-08-19T07:42:26.192Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2025-08-19T07:42:26.623Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2025-08-19T07:42:26.796Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2025-08-19T07:43:04.354Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2025-08-19T07:43:04.531Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,19 +415,16 @@
       <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
-      <c r="E1" t="str">
-        <v>TimeStamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-08-19T07:40:41.863Z</v>
+        <v>2025-08-21T04:23:08.391Z</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-08-19T07:40:53.695Z</v>
+        <v>2025-08-21T04:23:18.697Z</v>
       </c>
     </row>
     <row r="4">
@@ -449,78 +446,12 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-08-19T07:40:53.858Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2025-08-19T07:42:15.961Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2025-08-19T07:42:26.192Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D7" t="str">
-        <v>2025-08-19T07:42:26.623Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D8" t="str">
-        <v>2025-08-19T07:42:26.796Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D9" t="str">
-        <v>2025-08-19T07:43:04.354Z</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D10" t="str">
-        <v>2025-08-19T07:43:04.531Z</v>
+        <v>2025-08-21T04:23:20.186Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-08-21T04:23:08.391Z</v>
+        <v>2025-08-29T03:52:35.411Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-08-21T04:23:18.697Z</v>
+        <v>2025-08-29T03:52:51.739Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-08-21T04:23:20.186Z</v>
+        <v>2025-08-29T03:52:53.308Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,9 +412,6 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
-      <c r="D1" t="str">
-        <v>Timestamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -424,34 +421,12 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-08-29T03:52:35.411Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2025-08-29T03:52:51.739Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2025-08-29T03:52:53.308Z</v>
+        <v>2025-09-10T10:07:57.835Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -421,7 +421,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-09-10T10:07:57.835Z</v>
+        <v>2025-09-16T08:05:54.721Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -412,6 +412,9 @@
       <c r="C1" t="str">
         <v>timeStamp</v>
       </c>
+      <c r="D1" t="str">
+        <v>Timestamp</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -421,12 +424,34 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-09-16T08:05:54.721Z</v>
+        <v>2025-09-22T06:52:14.673Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D3" t="str">
+        <v>2025-09-22T06:52:30.689Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2025-09-22T06:52:35.423Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-09-22T06:52:14.673Z</v>
+        <v>2025-10-29T04:45:20.145Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-09-22T06:52:30.689Z</v>
+        <v>2025-10-29T04:45:43.016Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-09-22T06:52:35.423Z</v>
+        <v>2025-10-29T04:45:49.674Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-10-29T04:45:20.145Z</v>
+        <v>2025-09-22T06:52:14.673Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-10-29T04:45:43.016Z</v>
+        <v>2025-09-22T06:52:30.689Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-10-29T04:45:49.674Z</v>
+        <v>2025-09-22T06:52:35.423Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,48 +410,34 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>timeStamp</v>
-      </c>
-      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
+        <v>Button Clicked</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-09-22T06:52:14.673Z</v>
+        <v>2025-11-04T03:07:46.686Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User masuk ke Page Stip Input</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="D3" t="str">
-        <v>2025-09-22T06:52:30.689Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2025-09-22T06:52:35.423Z</v>
+      <c r="C3" t="str">
+        <v>2025-11-04T03:07:46.686Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,34 +410,48 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Button Clicked</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-11-04T03:07:46.686Z</v>
+        <v>2025-11-10T07:45:14.443Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User masuk ke Page Stip Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-11-04T03:07:46.686Z</v>
+      <c r="D3" t="str">
+        <v>2025-11-10T07:45:27.041Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D4" t="str">
+        <v>2025-11-10T07:45:28.349Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,61 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Test</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Status</v>
-      </c>
-      <c r="C1" t="str">
-        <v>timeStamp</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Timestamp</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C2" t="str">
-        <v>2025-11-10T07:45:14.443Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D3" t="str">
-        <v>2025-11-10T07:45:27.041Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D4" t="str">
-        <v>2025-11-10T07:45:28.349Z</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,13 +397,69 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Test</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Status</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Timestamp</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>Button Clicked</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C2" t="str">
+        <v>2025-11-13T02:44:44.086Z</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>User masuk ke Page Stip Input</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C3" t="str">
+        <v>2025-11-13T02:44:44.087Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>User ID Input</v>
+      </c>
+      <c r="B4" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C4" t="str">
+        <v>2025-11-13T02:44:45.452Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Password has been inputed</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025-11-13T02:44:45.696Z</v>
+      </c>
+    </row>
+  </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -421,7 +421,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-11-13T02:44:44.086Z</v>
+        <v>2025-11-13T03:25:54.346Z</v>
       </c>
     </row>
     <row r="3">
@@ -432,7 +432,7 @@
         <v>Pass</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-11-13T02:44:44.087Z</v>
+        <v>2025-11-13T03:25:54.347Z</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
         <v>Pass</v>
       </c>
       <c r="C4" t="str">
-        <v>2025-11-13T02:44:45.452Z</v>
+        <v>2025-11-13T03:25:55.096Z</v>
       </c>
     </row>
     <row r="5">
@@ -454,7 +454,7 @@
         <v>Pass</v>
       </c>
       <c r="C5" t="str">
-        <v>2025-11-13T02:44:45.696Z</v>
+        <v>2025-11-13T03:25:55.350Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,7 +421,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-11-13T03:25:54.346Z</v>
+        <v>2025-11-16T13:31:47.355Z</v>
       </c>
     </row>
     <row r="3">
@@ -432,7 +432,7 @@
         <v>Pass</v>
       </c>
       <c r="C3" t="str">
-        <v>2025-11-13T03:25:54.347Z</v>
+        <v>2025-11-16T13:31:47.356Z</v>
       </c>
     </row>
     <row r="4">
@@ -443,7 +443,7 @@
         <v>Pass</v>
       </c>
       <c r="C4" t="str">
-        <v>2025-11-13T03:25:55.096Z</v>
+        <v>2025-11-16T13:31:48.338Z</v>
       </c>
     </row>
     <row r="5">
@@ -454,12 +454,23 @@
         <v>Pass</v>
       </c>
       <c r="C5" t="str">
-        <v>2025-11-13T03:25:55.350Z</v>
+        <v>2025-11-16T13:31:48.556Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>User memilih STIPCategory di dropdown Colocation STIPCategory</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2025-11-16T13:32:26.134Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,67 +410,117 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
         <v>Timestamp</v>
+      </c>
+      <c r="E1" t="str">
+        <v>TimeStamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Button Clicked</v>
+        <v>User AM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-11-16T13:31:47.355Z</v>
+        <v>2025-11-19T04:07:30.231Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User masuk ke Page Stip Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-11-16T13:31:47.356Z</v>
+      <c r="D3" t="str">
+        <v>2025-11-19T04:07:40.683Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User ID Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="C4" t="str">
-        <v>2025-11-16T13:31:48.338Z</v>
+      <c r="D4" t="str">
+        <v>2025-11-19T04:07:40.852Z</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Password has been inputed</v>
+        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
       </c>
       <c r="B5" t="str">
         <v>Pass</v>
       </c>
-      <c r="C5" t="str">
-        <v>2025-11-16T13:31:48.556Z</v>
+      <c r="E5" t="str">
+        <v>2025-11-19T04:08:12.582Z</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>User memilih STIPCategory di dropdown Colocation STIPCategory</v>
+        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
       </c>
       <c r="B6" t="str">
         <v>Pass</v>
       </c>
-      <c r="C6" t="str">
-        <v>2025-11-16T13:32:26.134Z</v>
+      <c r="E6" t="str">
+        <v>2025-11-19T04:08:23.195Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D7" t="str">
+        <v>2025-11-19T04:08:23.703Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D8" t="str">
+        <v>2025-11-19T04:08:23.955Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D9" t="str">
+        <v>2025-11-19T04:09:01.440Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="D10" t="str">
+        <v>2025-11-19T04:09:01.646Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -415,19 +415,16 @@
       <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
-      <c r="E1" t="str">
-        <v>TimeStamp</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User AM melakukan akses ke menu Stip Approval</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-11-19T04:07:30.231Z</v>
+        <v>2025-11-21T02:46:58.289Z</v>
       </c>
     </row>
     <row r="3">
@@ -438,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-11-19T04:07:40.683Z</v>
+        <v>2025-11-21T02:47:13.605Z</v>
       </c>
     </row>
     <row r="4">
@@ -449,78 +446,12 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-11-19T04:07:40.852Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>User LEAD PM melakukan akses ke menu Stip Approval</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2025-11-19T04:08:12.582Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User LEAD PM melakukan input SONumber di Stip approval</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2025-11-19T04:08:23.195Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D7" t="str">
-        <v>2025-11-19T04:08:23.703Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D8" t="str">
-        <v>2025-11-19T04:08:23.955Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D9" t="str">
-        <v>2025-11-19T04:09:01.440Z</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="D10" t="str">
-        <v>2025-11-19T04:09:01.646Z</v>
+        <v>2025-11-21T02:47:18.346Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E10"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,48 +410,144 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>timeStamp</v>
-      </c>
-      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
+        <v>Button Clicked</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-11-21T02:46:58.289Z</v>
+        <v>2025-11-27T09:04:49.248Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User masuk ke Page Stip Input</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="D3" t="str">
-        <v>2025-11-21T02:47:13.605Z</v>
+      <c r="C3" t="str">
+        <v>2025-11-27T09:04:49.248Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User ID Input</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="D4" t="str">
-        <v>2025-11-21T02:47:18.346Z</v>
+      <c r="C4" t="str">
+        <v>2025-11-27T09:04:49.798Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Password has been inputed</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025-11-27T09:04:50.038Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>User memilih STIPCategory di dropdown Colocation STIPCategory</v>
+      </c>
+      <c r="B6" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C6" t="str">
+        <v>2025-11-27T09:05:00.665Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>User memilih Product di dropdown Colocation Product</v>
+      </c>
+      <c r="B7" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C7" t="str">
+        <v>2025-11-27T09:05:01.908Z</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>User memilih Customer di dropdown Colocation Customer</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C8" t="str">
+        <v>2025-11-27T09:05:02.799Z</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>User memilih Customer di dropdown Colocation Customer</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C9" t="str">
+        <v>2025-11-27T09:05:10.405Z</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>User memilih region di dropdown Colocation Region</v>
+      </c>
+      <c r="B10" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2025-11-27T09:05:12.854Z</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>User melakukan click tombol Colocation Price Amount Popup</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C11" t="str">
+        <v>2025-11-27T09:05:14.642Z</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>User melakukan click tombol Price Amount Popup</v>
+      </c>
+      <c r="B12" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C12" t="str">
+        <v>2025-11-27T09:05:17.102Z</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>User melakukan click tombol Colocation Price Amount Popup</v>
+      </c>
+      <c r="B13" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C13" t="str">
+        <v>2025-11-27T09:05:23.013Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C13"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,144 +410,48 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Button Clicked</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-11-27T09:04:49.248Z</v>
+        <v>2025-12-03T08:16:12.879Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User masuk ke Page Stip Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-11-27T09:04:49.248Z</v>
+      <c r="D3" t="str">
+        <v>2025-12-03T08:16:27.210Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User ID Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="C4" t="str">
-        <v>2025-11-27T09:04:49.798Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Password has been inputed</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2025-11-27T09:04:50.038Z</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>User memilih STIPCategory di dropdown Colocation STIPCategory</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C6" t="str">
-        <v>2025-11-27T09:05:00.665Z</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>User memilih Product di dropdown Colocation Product</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C7" t="str">
-        <v>2025-11-27T09:05:01.908Z</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>User memilih Customer di dropdown Colocation Customer</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C8" t="str">
-        <v>2025-11-27T09:05:02.799Z</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>User memilih Customer di dropdown Colocation Customer</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C9" t="str">
-        <v>2025-11-27T09:05:10.405Z</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>User memilih region di dropdown Colocation Region</v>
-      </c>
-      <c r="B10" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C10" t="str">
-        <v>2025-11-27T09:05:12.854Z</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>User melakukan click tombol Colocation Price Amount Popup</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C11" t="str">
-        <v>2025-11-27T09:05:14.642Z</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>User melakukan click tombol Price Amount Popup</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C12" t="str">
-        <v>2025-11-27T09:05:17.102Z</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>User melakukan click tombol Colocation Price Amount Popup</v>
-      </c>
-      <c r="B13" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C13" t="str">
-        <v>2025-11-27T09:05:23.013Z</v>
+      <c r="D4" t="str">
+        <v>2025-12-03T08:16:27.986Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C13"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -424,7 +424,7 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-12-03T08:16:12.879Z</v>
+        <v>2025-12-07T03:08:28.258Z</v>
       </c>
     </row>
     <row r="3">
@@ -435,7 +435,7 @@
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-12-03T08:16:27.210Z</v>
+        <v>2025-12-07T03:08:43.365Z</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-12-03T08:16:27.986Z</v>
+        <v>2025-12-07T03:08:45.932Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -424,29 +424,29 @@
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-12-07T03:08:28.258Z</v>
+        <v>2025-12-08T03:13:33.164Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User AM melakukan klik tombol Search di SPK Project</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
       <c r="D3" t="str">
-        <v>2025-12-07T03:08:43.365Z</v>
+        <v>2025-12-08T03:13:49.254Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User AM melakukan klik tombol Search di SPK Project</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
       <c r="D4" t="str">
-        <v>2025-12-07T03:08:45.932Z</v>
+        <v>2025-12-08T03:13:58.554Z</v>
       </c>
     </row>
   </sheetData>

--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,48 +410,56 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>timeStamp</v>
-      </c>
-      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
+        <v>Button Clicked</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-12-08T03:13:33.164Z</v>
+        <v>2025-12-09T03:31:11.992Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di SPK Project</v>
+        <v>User masuk ke Page Stip Input</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="D3" t="str">
-        <v>2025-12-08T03:13:49.254Z</v>
+      <c r="C3" t="str">
+        <v>2025-12-09T03:31:11.993Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di SPK Project</v>
+        <v>User ID Input</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="D4" t="str">
-        <v>2025-12-08T03:13:58.554Z</v>
+      <c r="C4" t="str">
+        <v>2025-12-09T03:31:13.479Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Password has been inputed</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025-12-09T03:31:13.718Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,56 +410,48 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
+        <v>timeStamp</v>
+      </c>
+      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Button Clicked</v>
+        <v>User PM FO melakukan akses ke menu Project activity Header</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-12-09T03:31:11.992Z</v>
+        <v>2025-12-15T07:08:40.947Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User masuk ke Page Stip Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="C3" t="str">
-        <v>2025-12-09T03:31:11.993Z</v>
+      <c r="D3" t="str">
+        <v>2025-12-15T07:08:52.197Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User ID Input</v>
+        <v>User AM melakukan klik tombol Search di Stip approval</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="C4" t="str">
-        <v>2025-12-09T03:31:13.479Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Password has been inputed</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2025-12-09T03:31:13.718Z</v>
+      <c r="D4" t="str">
+        <v>2025-12-15T07:08:54.988Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,48 +410,56 @@
         <v>Status</v>
       </c>
       <c r="C1" t="str">
-        <v>timeStamp</v>
-      </c>
-      <c r="D1" t="str">
         <v>Timestamp</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>User PM FO melakukan akses ke menu Project activity Header</v>
+        <v>Button Clicked</v>
       </c>
       <c r="B2" t="str">
         <v>Pass</v>
       </c>
       <c r="C2" t="str">
-        <v>2025-12-15T07:08:40.947Z</v>
+        <v>2025-12-17T06:43:14.512Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User masuk ke Page PV Master List Maintenance</v>
       </c>
       <c r="B3" t="str">
         <v>Pass</v>
       </c>
-      <c r="D3" t="str">
-        <v>2025-12-15T07:08:52.197Z</v>
+      <c r="C3" t="str">
+        <v>2025-12-17T06:43:14.513Z</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>User AM melakukan klik tombol Search di Stip approval</v>
+        <v>User ID Input</v>
       </c>
       <c r="B4" t="str">
         <v>Pass</v>
       </c>
-      <c r="D4" t="str">
-        <v>2025-12-15T07:08:54.988Z</v>
+      <c r="C4" t="str">
+        <v>2025-12-17T06:43:15.068Z</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Password has been inputed</v>
+      </c>
+      <c r="B5" t="str">
+        <v>Pass</v>
+      </c>
+      <c r="C5" t="str">
+        <v>2025-12-17T06:43:15.314Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
+++ b/cypress/downloads/resultsApproval_NewBuildMacro.xlsx
@@ -397,69 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Test</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Status</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Timestamp</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Button Clicked</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C2" t="str">
-        <v>2025-12-17T06:43:14.512Z</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>User masuk ke Page PV Master List Maintenance</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C3" t="str">
-        <v>2025-12-17T06:43:14.513Z</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>User ID Input</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C4" t="str">
-        <v>2025-12-17T06:43:15.068Z</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>Password has been inputed</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Pass</v>
-      </c>
-      <c r="C5" t="str">
-        <v>2025-12-17T06:43:15.314Z</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C5"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>